--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/77_Uşak_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/77_Uşak_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D0BB241-D310-4657-8659-F1E3D572C292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F793ED5-FC90-4FA0-AAD3-276243EE42C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="687" xr2:uid="{4593B899-3E94-47D3-B078-06CBEABC5DE0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="687" xr2:uid="{0192D52D-45C5-422E-85CD-5B0EE5881D68}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -967,15 +967,15 @@
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{6561DC14-90B8-4A29-9364-03B62F6E79B9}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{413E0575-54AA-48D3-9504-DDF164ADEC25}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{7D8A28AE-36BB-4DAC-8D7E-8E0FD2152052}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{11267461-6C3D-4F3E-9908-FBC8E12E65BD}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{39AA60C7-00B0-40AC-8112-A377F24B077D}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{4886023F-246C-4111-A46F-93CA37A3CFAF}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{F7B54B5F-D460-480A-9853-58ABF61FF654}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{4BF226B9-B5F4-4ACD-84E5-36682F35E883}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{3B81427B-DEB3-4EDC-B221-1F0CD3E5CEC4}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{1B8ABC3C-6F15-437F-A8FF-A0D3CA0ADC94}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{2C66A15B-A18E-4DEC-8BEC-4CF4C7C13BD2}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{1786CF32-CC4B-4A2E-9406-C9B6890BD448}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{E1093BD4-5B03-4B06-952E-191C734EF85E}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{47599D29-8C6E-4E2A-839A-48DA109D1198}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{BDD092DC-9BC8-46E0-B66D-66A3FE1164FA}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{705A46DB-1FC1-4A83-BE95-B5750049A8EC}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{EF7E6C0B-96A6-40D4-A49F-D0B055312800}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{7EB5B91E-8433-451B-AFE6-0D5B7C3F1E6D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1345,7 +1345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1EF818B-7F9A-4EB8-8F35-DCA56A802B60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4537B6D-FC26-4504-B0A8-76F7A6D5098C}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2621,7 +2621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B43BBC-D574-4556-8DB1-F82DFF065D12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA54234D-8157-4A35-AC33-B59855DE2E1F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3862,7 +3862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB895008-7D9B-45E5-9A1E-868F01F76C4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BCDFE2-643F-4471-ABB4-963FC8509F93}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5099,7 +5099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6469CD28-63EE-40EC-B4A9-D481ABADDF6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E63737-4044-4024-892B-423356F2FFF1}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6318,7 +6318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE6524B-4340-47D3-A341-62D801006CC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB68ADD4-7E27-4159-8EB6-3B938D99AF27}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7595,7 +7595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792165F3-8604-404D-8AFE-E66BE3F12C3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA36E79-1AAA-414B-BE5C-36DE59FB083F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8872,7 +8872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8702C2D-F807-4A36-B9E9-31CF47DFBA82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9065B3C-A26E-4F50-BFA3-D45F59579010}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10149,7 +10149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B18AB4-10C3-4BA7-B007-B6682CA0BEE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15CC65B9-74AF-494B-9D44-3FC12906EA21}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11422,7 +11422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27FA4AA-F75D-4FF0-8C46-DD3AAB64AE64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7184125E-6ABD-45C0-AE89-43829AEB86BB}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12695,7 +12695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91725756-DEDA-46A5-BC49-E6E23ECC9DA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F51434-D83A-45C0-8FB6-456569E06D87}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13956,7 +13956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF09120E-E215-4735-90E5-AD112CD14192}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6F67C3-4CC1-48CD-94D4-C16AE0717805}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15217,7 +15217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86C5A60-FFAB-4AE6-9F2C-5048DF7472F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB07BA6-2D30-40A1-AE93-F4602D145953}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
